--- a/Code/Results/Cases/Case_4_86/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_86/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.65910482276548</v>
+        <v>15.36873579987056</v>
       </c>
       <c r="C2">
-        <v>28.53098814242342</v>
+        <v>17.85741523675451</v>
       </c>
       <c r="D2">
-        <v>7.336950829421786</v>
+        <v>6.015478765848312</v>
       </c>
       <c r="E2">
-        <v>9.641436507929273</v>
+        <v>8.693958111024971</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.028312253161716</v>
+        <v>3.68481227798076</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>64.58372256912112</v>
+        <v>44.82148306539234</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.37033870068308</v>
+        <v>17.48606014150778</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.8666070680115</v>
+        <v>15.09450607348673</v>
       </c>
       <c r="C3">
-        <v>26.3140597017273</v>
+        <v>17.09403317808741</v>
       </c>
       <c r="D3">
-        <v>6.772080132665932</v>
+        <v>5.904975522039424</v>
       </c>
       <c r="E3">
-        <v>9.064279995868647</v>
+        <v>8.553902495522669</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.050034236489435</v>
+        <v>3.690957023558072</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60.32271433469787</v>
+        <v>43.23152039762113</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.78492153214266</v>
+        <v>17.27484477194435</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.73909997956432</v>
+        <v>14.934965288537</v>
       </c>
       <c r="C4">
-        <v>24.91161119899328</v>
+        <v>16.61446590361236</v>
       </c>
       <c r="D4">
-        <v>6.41347960397627</v>
+        <v>5.838308458828961</v>
       </c>
       <c r="E4">
-        <v>8.705250383847165</v>
+        <v>8.46849814222022</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.063327361162902</v>
+        <v>3.694906691470082</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>57.64327904808834</v>
+        <v>42.22710807657933</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.78063244321321</v>
+        <v>17.1513682351082</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.27192914033163</v>
+        <v>14.87228442143178</v>
       </c>
       <c r="C5">
-        <v>24.32883317124833</v>
+        <v>16.4166335358706</v>
       </c>
       <c r="D5">
-        <v>6.26414586344647</v>
+        <v>5.811474768821076</v>
       </c>
       <c r="E5">
-        <v>8.557689550218177</v>
+        <v>8.43387791109563</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.068750732024728</v>
+        <v>3.696560929062762</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>56.53440472111426</v>
+        <v>41.81116714362141</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.36288759316377</v>
+        <v>17.1026668239254</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.19386630024875</v>
+        <v>14.86202033078187</v>
       </c>
       <c r="C6">
-        <v>24.23135983367876</v>
+        <v>16.38364854717809</v>
       </c>
       <c r="D6">
-        <v>6.239149377487274</v>
+        <v>5.807040261416971</v>
       </c>
       <c r="E6">
-        <v>8.533110234408973</v>
+        <v>8.428141281401423</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.069652116701163</v>
+        <v>3.696838322438573</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>56.34922661629479</v>
+        <v>41.74171373735396</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.29298929361583</v>
+        <v>17.09467912278257</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.73283185538816</v>
+        <v>14.93411036383044</v>
       </c>
       <c r="C7">
-        <v>24.90379833518847</v>
+        <v>16.61180714992028</v>
       </c>
       <c r="D7">
-        <v>6.411478891660309</v>
+        <v>5.837945171542378</v>
       </c>
       <c r="E7">
-        <v>8.703265466561284</v>
+        <v>8.46803045667829</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.063400456078988</v>
+        <v>3.694928819691341</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>57.62839431117661</v>
+        <v>42.22152478989923</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.77503385121875</v>
+        <v>17.15070481755432</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.04601581230527</v>
+        <v>15.2724160554235</v>
       </c>
       <c r="C8">
-        <v>27.77455176218285</v>
+        <v>17.59663477724284</v>
       </c>
       <c r="D8">
-        <v>7.14446757494453</v>
+        <v>5.977153774697573</v>
       </c>
       <c r="E8">
-        <v>9.443328146482742</v>
+        <v>8.645565028197725</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.035822653812581</v>
+        <v>3.686894458708961</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>63.1268426422441</v>
+        <v>44.2793655339321</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.82960614887431</v>
+        <v>17.41197808595826</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.42232623101949</v>
+        <v>16.00074643102597</v>
       </c>
       <c r="C9">
-        <v>33.12925914214239</v>
+        <v>19.42948256967442</v>
       </c>
       <c r="D9">
-        <v>8.501968976280674</v>
+        <v>6.25791546870614</v>
       </c>
       <c r="E9">
-        <v>10.86537598323748</v>
+        <v>8.996886682853281</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.980404656590039</v>
+        <v>3.672529482954881</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>73.48303056448934</v>
+        <v>48.07385549829333</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>23.65499400975419</v>
+        <v>17.97102394163858</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.64056606630839</v>
+        <v>16.56816552728751</v>
       </c>
       <c r="C10">
-        <v>36.99510964261619</v>
+        <v>20.70203173986706</v>
       </c>
       <c r="D10">
-        <v>9.475324850530715</v>
+        <v>6.466795894093091</v>
       </c>
       <c r="E10">
-        <v>11.91079423414141</v>
+        <v>9.254941976634393</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.937038318539367</v>
+        <v>3.662805939517407</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>80.9869667224778</v>
+        <v>50.69451962184402</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>26.41682739616373</v>
+        <v>18.40653911974002</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.13910839030266</v>
+        <v>16.83174904277735</v>
       </c>
       <c r="C11">
-        <v>38.77266553595805</v>
+        <v>21.2625349374749</v>
       </c>
       <c r="D11">
-        <v>9.921091163687597</v>
+        <v>6.561948673668137</v>
       </c>
       <c r="E11">
-        <v>12.39374385951222</v>
+        <v>9.371913307536403</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.916117809353473</v>
+        <v>3.658559014999629</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>84.43364353596751</v>
+        <v>51.8469572393657</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>27.68775340241232</v>
+        <v>18.60922332010001</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.71577279549217</v>
+        <v>16.93221818971639</v>
       </c>
       <c r="C12">
-        <v>39.45273481899714</v>
+        <v>21.47198164719151</v>
       </c>
       <c r="D12">
-        <v>10.09133321531184</v>
+        <v>6.597964607213042</v>
       </c>
       <c r="E12">
-        <v>12.57864085525554</v>
+        <v>9.41611382525698</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.907947064562599</v>
+        <v>3.656975878002414</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>85.75068556152833</v>
+        <v>52.27740234513711</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>28.17422978689777</v>
+        <v>18.6865607203357</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.59108272308994</v>
+        <v>16.91055321878915</v>
       </c>
       <c r="C13">
-        <v>39.30587494054148</v>
+        <v>21.42700053095709</v>
       </c>
       <c r="D13">
-        <v>10.05458403603108</v>
+        <v>6.590209205306409</v>
       </c>
       <c r="E13">
-        <v>12.53871072497526</v>
+        <v>9.406599156157556</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.909719402218646</v>
+        <v>3.65731572387354</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>85.46636457431516</v>
+        <v>52.1849668540859</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>28.06916388241349</v>
+        <v>18.66987983147344</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.18633626027821</v>
+        <v>16.84000228627333</v>
       </c>
       <c r="C14">
-        <v>38.82844576451713</v>
+        <v>21.27982326269158</v>
       </c>
       <c r="D14">
-        <v>9.935061004515147</v>
+        <v>6.564912250964712</v>
       </c>
       <c r="E14">
-        <v>12.40890815015679</v>
+        <v>9.375551782876384</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.915451131268652</v>
+        <v>3.658428268316901</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>84.54170860038339</v>
+        <v>51.88249092106114</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>27.7276495769425</v>
+        <v>18.61557459285064</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.93976932250885</v>
+        <v>16.79686942140286</v>
       </c>
       <c r="C15">
-        <v>38.53706507583126</v>
+        <v>21.18930349027494</v>
       </c>
       <c r="D15">
-        <v>9.862073910638086</v>
+        <v>6.549413983017038</v>
       </c>
       <c r="E15">
-        <v>12.32969782354239</v>
+        <v>9.356521151803889</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.918926801689445</v>
+        <v>3.659112991860147</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>83.97713422078657</v>
+        <v>51.69643300935414</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>27.51925295191349</v>
+        <v>18.58238517178791</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.54365420495076</v>
+        <v>16.55103847203434</v>
       </c>
       <c r="C16">
-        <v>36.87964903890872</v>
+        <v>20.66501733591094</v>
       </c>
       <c r="D16">
-        <v>9.446331094190844</v>
+        <v>6.460577036956231</v>
       </c>
       <c r="E16">
-        <v>11.8794537378871</v>
+        <v>9.247286279717772</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.938375575978923</v>
+        <v>3.663087011068136</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>80.76293026711636</v>
+        <v>50.61838405471136</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>26.33430245169629</v>
+        <v>18.39337901948278</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.69857599837233</v>
+        <v>16.40153478423084</v>
       </c>
       <c r="C17">
-        <v>35.87027122715882</v>
+        <v>20.33855398504825</v>
       </c>
       <c r="D17">
-        <v>9.192660226418205</v>
+        <v>6.40608664267337</v>
       </c>
       <c r="E17">
-        <v>11.60569903453779</v>
+        <v>9.180142477345994</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.949954873442403</v>
+        <v>3.665569916053445</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>78.8038467266214</v>
+        <v>49.94667732877326</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>25.61297661461816</v>
+        <v>18.27854868704598</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.2154371509997</v>
+        <v>16.31606589229387</v>
       </c>
       <c r="C18">
-        <v>35.29116487136451</v>
+        <v>20.14905821114426</v>
       </c>
       <c r="D18">
-        <v>9.046958954321447</v>
+        <v>6.374759662237215</v>
       </c>
       <c r="E18">
-        <v>11.44886297717009</v>
+        <v>9.141485614640313</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.9565085948054</v>
+        <v>3.667014634473152</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>77.6796006323907</v>
+        <v>49.55660368488984</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>25.19922126824449</v>
+        <v>18.21293540496305</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.05225289258668</v>
+        <v>16.28722119546962</v>
       </c>
       <c r="C19">
-        <v>35.09523607898571</v>
+        <v>20.08460760603208</v>
       </c>
       <c r="D19">
-        <v>8.997636853869913</v>
+        <v>6.3641564688959</v>
       </c>
       <c r="E19">
-        <v>11.39584443114005</v>
+        <v>9.128391666814952</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.958711206302808</v>
+        <v>3.667506653786985</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>77.29921664104373</v>
+        <v>49.42389963741181</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>25.05924814059983</v>
+        <v>18.19079660061248</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.78820730409757</v>
+        <v>16.41739666553986</v>
       </c>
       <c r="C20">
-        <v>35.97754438255579</v>
+        <v>20.37348609439776</v>
       </c>
       <c r="D20">
-        <v>9.219636698278865</v>
+        <v>6.411886003195449</v>
       </c>
       <c r="E20">
-        <v>11.63477078155406</v>
+        <v>9.187294181190479</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.948733715983372</v>
+        <v>3.665303888786168</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>79.01208592568753</v>
+        <v>50.01856914758589</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>25.68962686246153</v>
+        <v>18.29072816189166</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.30492827927739</v>
+        <v>16.86070802202713</v>
       </c>
       <c r="C21">
-        <v>38.96844763785084</v>
+        <v>21.32313003753664</v>
       </c>
       <c r="D21">
-        <v>9.970118691556872</v>
+        <v>6.57234329762221</v>
       </c>
       <c r="E21">
-        <v>12.446970003367</v>
+        <v>9.384673962093689</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.913775098357082</v>
+        <v>3.658100808594093</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>84.81290949149815</v>
+        <v>51.9714989367962</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>27.82778842318894</v>
+        <v>18.63151004139893</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.00675640643482</v>
+        <v>17.15420282248378</v>
       </c>
       <c r="C22">
-        <v>40.9670537291103</v>
+        <v>21.9273778406689</v>
       </c>
       <c r="D22">
-        <v>10.46979886373167</v>
+        <v>6.67710080681177</v>
       </c>
       <c r="E22">
-        <v>12.99031513306299</v>
+        <v>9.513110521979289</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.889416929415486</v>
+        <v>3.6535392393747</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>88.67894153698086</v>
+        <v>53.21303193288345</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>29.25801391820486</v>
+        <v>18.85760930654058</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.09135117584551</v>
+        <v>16.99725641401127</v>
       </c>
       <c r="C23">
-        <v>39.8944567514306</v>
+        <v>21.6064265491014</v>
       </c>
       <c r="D23">
-        <v>10.20181871546579</v>
+        <v>6.62121113919443</v>
       </c>
       <c r="E23">
-        <v>12.69874183923419</v>
+        <v>9.444623784637516</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.902590008426909</v>
+        <v>3.655960563439096</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>86.60552726811159</v>
+        <v>52.55366152159739</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>28.49028639455503</v>
+        <v>18.73665025484066</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.7476768502574</v>
+        <v>16.41022399540356</v>
       </c>
       <c r="C24">
-        <v>35.92904274940206</v>
+        <v>20.35769890578414</v>
       </c>
       <c r="D24">
-        <v>9.207440277462888</v>
+        <v>6.409264108753583</v>
       </c>
       <c r="E24">
-        <v>11.62162579998373</v>
+        <v>9.184061064613799</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.949286117894779</v>
+        <v>3.665424105921336</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>78.91793506879687</v>
+        <v>49.98607898639257</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>25.65497055989874</v>
+        <v>18.28522055689355</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.24681400983871</v>
+        <v>15.79750515555662</v>
       </c>
       <c r="C25">
-        <v>31.70151288877991</v>
+        <v>18.94576142053448</v>
       </c>
       <c r="D25">
-        <v>8.141115274437952</v>
+        <v>6.18135233847471</v>
       </c>
       <c r="E25">
-        <v>10.48235634982072</v>
+        <v>8.901712882195143</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.995699609378084</v>
+        <v>3.676268509847844</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>70.71413396589801</v>
+        <v>47.07539126635257</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>22.63532002077006</v>
+        <v>17.81515917286501</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_86/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_86/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.36873579987056</v>
+        <v>21.65910482276545</v>
       </c>
       <c r="C2">
-        <v>17.85741523675451</v>
+        <v>28.53098814242353</v>
       </c>
       <c r="D2">
-        <v>6.015478765848312</v>
+        <v>7.336950829421654</v>
       </c>
       <c r="E2">
-        <v>8.693958111024971</v>
+        <v>9.64143650792928</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.68481227798076</v>
+        <v>2.028312253161732</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>44.82148306539234</v>
+        <v>64.58372256912132</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.48606014150778</v>
+        <v>20.37033870068309</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.09450607348673</v>
+        <v>19.86660706801154</v>
       </c>
       <c r="C3">
-        <v>17.09403317808741</v>
+        <v>26.31405970172723</v>
       </c>
       <c r="D3">
-        <v>5.904975522039424</v>
+        <v>6.772080132666031</v>
       </c>
       <c r="E3">
-        <v>8.553902495522669</v>
+        <v>9.064279995868702</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.690957023558072</v>
+        <v>2.050034236489597</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>43.23152039762113</v>
+        <v>60.32271433469801</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.27484477194435</v>
+        <v>18.7849215321427</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.934965288537</v>
+        <v>18.73909997956444</v>
       </c>
       <c r="C4">
-        <v>16.61446590361236</v>
+        <v>24.91161119899344</v>
       </c>
       <c r="D4">
-        <v>5.838308458828961</v>
+        <v>6.413479603976303</v>
       </c>
       <c r="E4">
-        <v>8.46849814222022</v>
+        <v>8.705250383847275</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.694906691470082</v>
+        <v>2.063327361162912</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>42.22710807657933</v>
+        <v>57.64327904808876</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.1513682351082</v>
+        <v>17.78063244321329</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.87228442143178</v>
+        <v>18.27192914033175</v>
       </c>
       <c r="C5">
-        <v>16.4166335358706</v>
+        <v>24.32883317124839</v>
       </c>
       <c r="D5">
-        <v>5.811474768821076</v>
+        <v>6.264145863446456</v>
       </c>
       <c r="E5">
-        <v>8.43387791109563</v>
+        <v>8.557689550218132</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.696560929062762</v>
+        <v>2.068750732024617</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>41.81116714362141</v>
+        <v>56.53440472111492</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.1026668239254</v>
+        <v>17.36288759316387</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.86202033078187</v>
+        <v>18.19386630024868</v>
       </c>
       <c r="C6">
-        <v>16.38364854717809</v>
+        <v>24.23135983367866</v>
       </c>
       <c r="D6">
-        <v>5.807040261416971</v>
+        <v>6.239149377487265</v>
       </c>
       <c r="E6">
-        <v>8.428141281401423</v>
+        <v>8.533110234408902</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.696838322438573</v>
+        <v>2.069652116701158</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>41.74171373735396</v>
+        <v>56.34922661629476</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.09467912278257</v>
+        <v>17.29298929361576</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.93411036383044</v>
+        <v>18.73283185538813</v>
       </c>
       <c r="C7">
-        <v>16.61180714992028</v>
+        <v>24.90379833518858</v>
       </c>
       <c r="D7">
-        <v>5.837945171542378</v>
+        <v>6.411478891660252</v>
       </c>
       <c r="E7">
-        <v>8.46803045667829</v>
+        <v>8.703265466561234</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.694928819691341</v>
+        <v>2.063400456078979</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>42.22152478989923</v>
+        <v>57.62839431117652</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.15070481755432</v>
+        <v>17.77503385121871</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.2724160554235</v>
+        <v>21.04601581230541</v>
       </c>
       <c r="C8">
-        <v>17.59663477724284</v>
+        <v>27.77455176218294</v>
       </c>
       <c r="D8">
-        <v>5.977153774697573</v>
+        <v>7.144467574944658</v>
       </c>
       <c r="E8">
-        <v>8.645565028197725</v>
+        <v>9.44332814648271</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.686894458708961</v>
+        <v>2.035822653812703</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>44.2793655339321</v>
+        <v>63.12684264224436</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.41197808595826</v>
+        <v>19.82960614887443</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.00074643102597</v>
+        <v>25.42232623101901</v>
       </c>
       <c r="C9">
-        <v>19.42948256967442</v>
+        <v>33.12925914214194</v>
       </c>
       <c r="D9">
-        <v>6.25791546870614</v>
+        <v>8.501968976280441</v>
       </c>
       <c r="E9">
-        <v>8.996886682853281</v>
+        <v>10.86537598323744</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.672529482954881</v>
+        <v>1.980404656590163</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>48.07385549829333</v>
+        <v>73.48303056448792</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.97102394163858</v>
+        <v>23.65499400975389</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.56816552728751</v>
+        <v>28.64056606630843</v>
       </c>
       <c r="C10">
-        <v>20.70203173986706</v>
+        <v>36.99510964261623</v>
       </c>
       <c r="D10">
-        <v>6.466795894093091</v>
+        <v>9.475324850530811</v>
       </c>
       <c r="E10">
-        <v>9.254941976634393</v>
+        <v>11.91079423414135</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.662805939517407</v>
+        <v>1.937038318539245</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>50.69451962184402</v>
+        <v>80.98696672247809</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.40653911974002</v>
+        <v>26.41682739616368</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.83174904277735</v>
+        <v>30.13910839030227</v>
       </c>
       <c r="C11">
-        <v>21.2625349374749</v>
+        <v>38.77266553595786</v>
       </c>
       <c r="D11">
-        <v>6.561948673668137</v>
+        <v>9.921091163687571</v>
       </c>
       <c r="E11">
-        <v>9.371913307536403</v>
+        <v>12.39374385951217</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.658559014999629</v>
+        <v>1.916117809353445</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>51.8469572393657</v>
+        <v>84.4336435359663</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.60922332010001</v>
+        <v>27.68775340241211</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.93221818971639</v>
+        <v>30.71577279549215</v>
       </c>
       <c r="C12">
-        <v>21.47198164719151</v>
+        <v>39.45273481899689</v>
       </c>
       <c r="D12">
-        <v>6.597964607213042</v>
+        <v>10.09133321531194</v>
       </c>
       <c r="E12">
-        <v>9.41611382525698</v>
+        <v>12.57864085525541</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.656975878002414</v>
+        <v>1.907947064562478</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>52.27740234513711</v>
+        <v>85.75068556152752</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.6865607203357</v>
+        <v>28.17422978689762</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.91055321878915</v>
+        <v>30.59108272308992</v>
       </c>
       <c r="C13">
-        <v>21.42700053095709</v>
+        <v>39.30587494054134</v>
       </c>
       <c r="D13">
-        <v>6.590209205306409</v>
+        <v>10.05458403603095</v>
       </c>
       <c r="E13">
-        <v>9.406599156157556</v>
+        <v>12.53871072497525</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.65731572387354</v>
+        <v>1.909719402218632</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>52.1849668540859</v>
+        <v>85.4663645743144</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.66987983147344</v>
+        <v>28.06916388241348</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.84000228627333</v>
+        <v>30.1863362602781</v>
       </c>
       <c r="C14">
-        <v>21.27982326269158</v>
+        <v>38.82844576451695</v>
       </c>
       <c r="D14">
-        <v>6.564912250964712</v>
+        <v>9.935061004515111</v>
       </c>
       <c r="E14">
-        <v>9.375551782876384</v>
+        <v>12.4089081501568</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.658428268316901</v>
+        <v>1.915451131268652</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>51.88249092106114</v>
+        <v>84.54170860038364</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.61557459285064</v>
+        <v>27.72764957694243</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.79686942140286</v>
+        <v>29.93976932250881</v>
       </c>
       <c r="C15">
-        <v>21.18930349027494</v>
+        <v>38.53706507583101</v>
       </c>
       <c r="D15">
-        <v>6.549413983017038</v>
+        <v>9.862073910638117</v>
       </c>
       <c r="E15">
-        <v>9.356521151803889</v>
+        <v>12.32969782354244</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.659112991860147</v>
+        <v>1.918926801689539</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>51.69643300935414</v>
+        <v>83.97713422078552</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.58238517178791</v>
+        <v>27.51925295191344</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.55103847203434</v>
+        <v>28.54365420495084</v>
       </c>
       <c r="C16">
-        <v>20.66501733591094</v>
+        <v>36.87964903890881</v>
       </c>
       <c r="D16">
-        <v>6.460577036956231</v>
+        <v>9.446331094190745</v>
       </c>
       <c r="E16">
-        <v>9.247286279717772</v>
+        <v>11.87945373788709</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.663087011068136</v>
+        <v>1.938375575979019</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>50.61838405471136</v>
+        <v>80.76293026711706</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.39337901948278</v>
+        <v>26.33430245169628</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.40153478423084</v>
+        <v>27.69857599837242</v>
       </c>
       <c r="C17">
-        <v>20.33855398504825</v>
+        <v>35.87027122715894</v>
       </c>
       <c r="D17">
-        <v>6.40608664267337</v>
+        <v>9.192660226418351</v>
       </c>
       <c r="E17">
-        <v>9.180142477345994</v>
+        <v>11.60569903453779</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.665569916053445</v>
+        <v>1.949954873442156</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>49.94667732877326</v>
+        <v>78.8038467266217</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.27854868704598</v>
+        <v>25.61297661461822</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.31606589229387</v>
+        <v>27.21543715099969</v>
       </c>
       <c r="C18">
-        <v>20.14905821114426</v>
+        <v>35.29116487136444</v>
       </c>
       <c r="D18">
-        <v>6.374759662237215</v>
+        <v>9.04695895432141</v>
       </c>
       <c r="E18">
-        <v>9.141485614640313</v>
+        <v>11.4488629771701</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.667014634473152</v>
+        <v>1.956508594805276</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>49.55660368488984</v>
+        <v>77.67960063239158</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.21293540496305</v>
+        <v>25.19922126824447</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.28722119546962</v>
+        <v>27.05225289258643</v>
       </c>
       <c r="C19">
-        <v>20.08460760603208</v>
+        <v>35.09523607898543</v>
       </c>
       <c r="D19">
-        <v>6.3641564688959</v>
+        <v>8.997636853870013</v>
       </c>
       <c r="E19">
-        <v>9.128391666814952</v>
+        <v>11.39584443113999</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.667506653786985</v>
+        <v>1.958711206302573</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>49.42389963741181</v>
+        <v>77.29921664104334</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.19079660061248</v>
+        <v>25.05924814059964</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.41739666553986</v>
+        <v>27.78820730409758</v>
       </c>
       <c r="C20">
-        <v>20.37348609439776</v>
+        <v>35.97754438255585</v>
       </c>
       <c r="D20">
-        <v>6.411886003195449</v>
+        <v>9.219636698278787</v>
       </c>
       <c r="E20">
-        <v>9.187294181190479</v>
+        <v>11.63477078155399</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.665303888786168</v>
+        <v>1.948733715983262</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>50.01856914758589</v>
+        <v>79.01208592568791</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.29072816189166</v>
+        <v>25.68962686246151</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.86070802202713</v>
+        <v>30.30492827927724</v>
       </c>
       <c r="C21">
-        <v>21.32313003753664</v>
+        <v>38.96844763785074</v>
       </c>
       <c r="D21">
-        <v>6.57234329762221</v>
+        <v>9.970118691556804</v>
       </c>
       <c r="E21">
-        <v>9.384673962093689</v>
+        <v>12.44697000336705</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.658100808594093</v>
+        <v>1.913775098357189</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>51.9714989367962</v>
+        <v>84.81290949149744</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.63151004139893</v>
+        <v>27.82778842318893</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.15420282248378</v>
+        <v>32.00675640643458</v>
       </c>
       <c r="C22">
-        <v>21.9273778406689</v>
+        <v>40.96705372911021</v>
       </c>
       <c r="D22">
-        <v>6.67710080681177</v>
+        <v>10.46979886373171</v>
       </c>
       <c r="E22">
-        <v>9.513110521979289</v>
+        <v>12.99031513306301</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.6535392393747</v>
+        <v>1.889416929415471</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>53.21303193288345</v>
+        <v>88.67894153698064</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.85760930654058</v>
+        <v>29.25801391820477</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.99725641401127</v>
+        <v>31.09135117584578</v>
       </c>
       <c r="C23">
-        <v>21.6064265491014</v>
+        <v>39.89445675143099</v>
       </c>
       <c r="D23">
-        <v>6.62121113919443</v>
+        <v>10.2018187154658</v>
       </c>
       <c r="E23">
-        <v>9.444623784637516</v>
+        <v>12.69874183923425</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.655960563439096</v>
+        <v>1.902590008426952</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>52.55366152159739</v>
+        <v>86.60552726811287</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.73665025484066</v>
+        <v>28.49028639455518</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.41022399540356</v>
+        <v>27.74767685025734</v>
       </c>
       <c r="C24">
-        <v>20.35769890578414</v>
+        <v>35.92904274940214</v>
       </c>
       <c r="D24">
-        <v>6.409264108753583</v>
+        <v>9.207440277462862</v>
       </c>
       <c r="E24">
-        <v>9.184061064613799</v>
+        <v>11.62162579998372</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.665424105921336</v>
+        <v>1.949286117894942</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>49.98607898639257</v>
+        <v>78.91793506879739</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.28522055689355</v>
+        <v>25.65497055989875</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.79750515555662</v>
+        <v>24.2468140098389</v>
       </c>
       <c r="C25">
-        <v>18.94576142053448</v>
+        <v>31.70151288878002</v>
       </c>
       <c r="D25">
-        <v>6.18135233847471</v>
+        <v>8.141115274438087</v>
       </c>
       <c r="E25">
-        <v>8.901712882195143</v>
+        <v>10.48235634982078</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.676268509847844</v>
+        <v>1.995699609377857</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>47.07539126635257</v>
+        <v>70.71413396589911</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.81515917286501</v>
+        <v>22.63532002077018</v>
       </c>
       <c r="N25">
         <v>0</v>
